--- a/data/trans_bre/IP21-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP21-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-44,23%</t>
+          <t>-34,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-55,06%</t>
+          <t>-23,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-36,93%</t>
+          <t>-12,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-46,46%</t>
+          <t>92,0%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 0,67</t>
+          <t>-3,84; 1,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 0,3</t>
+          <t>-3,82; 1,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 0,99</t>
+          <t>-1,64; 1,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,6</t>
+          <t>-0,71; 3,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-89,63; 117,03</t>
+          <t>-78,11; 87,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,79; 45,2</t>
+          <t>-66,74; 65,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-75,72; 59,74</t>
+          <t>-85,78; 472,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-91,47; 145,07</t>
+          <t>-48,68; 869,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-34,17%</t>
+          <t>-44,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,1%</t>
+          <t>-55,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-12,17%</t>
+          <t>-36,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>-46,46%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,33</t>
+          <t>-2,51; 0,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,7</t>
+          <t>-3,94; 0,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,5</t>
+          <t>-3,94; 0,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,91</t>
+          <t>-2,02; 0,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-78,11; 87,07</t>
+          <t>-89,63; 117,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,74; 65,36</t>
+          <t>-89,79; 45,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-85,78; 472,28</t>
+          <t>-75,72; 59,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-48,68; 869,39</t>
+          <t>-91,47; 145,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP21-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP21-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,3%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>33,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>83,14%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-46,58%</t>
+          <t>-48,57%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 4,01</t>
+          <t>-4,3; 11,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 5,49</t>
+          <t>-3,17; 7,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 6,43</t>
+          <t>-3,84; 4,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 1,23</t>
+          <t>-7,55; 1,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,79; 53,4</t>
+          <t>-25,97; 111,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,02; 122,03</t>
+          <t>-33,51; 160,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 300,2</t>
+          <t>-60,73; 152,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-91,65; 134,19</t>
+          <t>-100,0; 206,15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-34,17%</t>
+          <t>-58,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-23,1%</t>
+          <t>-6,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,17%</t>
+          <t>163,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>65,82%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,33</t>
+          <t>-4,57; -0,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,7</t>
+          <t>-3,4; 2,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,5</t>
+          <t>0,02; 4,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,91</t>
+          <t>-1,1; 4,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-78,11; 87,07</t>
+          <t>-87,04; 7,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,74; 65,36</t>
+          <t>-53,02; 81,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-85,78; 472,28</t>
+          <t>-17,35; 766,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,68; 869,39</t>
+          <t>-60,87; 576,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -830,32 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-44,23%</t>
+          <t>-53,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-55,06%</t>
+          <t>-65,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-36,93%</t>
+          <t>-23,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-46,46%</t>
+          <t>-5,01%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 0,67</t>
+          <t>-5,09; 0,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 0,3</t>
+          <t>-4,32; 0,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 0,99</t>
+          <t>-3,35; 1,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,6</t>
+          <t>-2,01; 1,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-89,63; 117,03</t>
+          <t>-100,0; 75,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-89,79; 45,2</t>
+          <t>-100,0; 115,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-75,72; 59,74</t>
+          <t>-79,26; 178,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-91,47; 145,07</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,66%</t>
+          <t>-26,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,92%</t>
+          <t>-60,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>-46,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-13,21%</t>
+          <t>-61,36%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,96</t>
+          <t>-2,27; 1,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,27</t>
+          <t>-4,72; 0,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,72</t>
+          <t>-5,15; 0,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,85</t>
+          <t>-2,97; 0,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,93; 26,77</t>
+          <t>-100,0; 386,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 34,49</t>
+          <t>-100,0; 68,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 81,72</t>
+          <t>-87,2; 93,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,67; 84,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-18,66%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-8,92%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,65%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-13,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 0,72</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 1,26</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 1,79</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,35; 0,79</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-47,31; 19,18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-42,01; 35,33</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-33,77; 88,79</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-61,12; 73,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP21-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP21-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 11,05</t>
+          <t>-4,3; 10,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 7,7</t>
+          <t>-3,23; 7,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 4,32</t>
+          <t>-3,8; 5,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 1,97</t>
+          <t>-6,94; 1,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 111,79</t>
+          <t>-24,74; 109,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 160,23</t>
+          <t>-33,64; 156,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-60,73; 152,72</t>
+          <t>-58,39; 234,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 206,15</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,57; -0,11</t>
+          <t>-4,49; -0,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,76</t>
+          <t>-3,69; 2,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,51</t>
+          <t>-0,0; 4,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,16</t>
+          <t>-0,94; 4,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-87,04; 7,63</t>
+          <t>-86,73; 14,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,02; 81,53</t>
+          <t>-53,95; 74,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 766,41</t>
+          <t>-20,56; 827,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,87; 576,87</t>
+          <t>-54,02; 562,06</t>
         </is>
       </c>
     </row>
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 0,97</t>
+          <t>-4,78; 1,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 0,49</t>
+          <t>-4,73; 0,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 1,96</t>
+          <t>-3,41; 1,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 1,64</t>
+          <t>-2,13; 1,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 75,0</t>
+          <t>-91,75; 175,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 115,57</t>
+          <t>-100,0; 162,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-79,26; 178,75</t>
+          <t>-77,85; 195,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,24</t>
+          <t>-2,0; 1,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 0,28</t>
+          <t>-4,56; 0,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 0,98</t>
+          <t>-5,01; 0,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,4</t>
+          <t>-2,94; 0,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 386,19</t>
+          <t>-100,0; 522,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 68,61</t>
+          <t>-100,0; 50,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-87,2; 93,19</t>
+          <t>-88,33; 59,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,72</t>
+          <t>-2,59; 0,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,26</t>
+          <t>-2,03; 1,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,79</t>
+          <t>-1,31; 1,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,79</t>
+          <t>-1,39; 0,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 19,18</t>
+          <t>-47,48; 25,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,01; 35,33</t>
+          <t>-38,66; 38,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,77; 88,79</t>
+          <t>-37,2; 85,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-61,12; 73,6</t>
+          <t>-60,8; 94,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP21-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP21-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-48,57%</t>
+          <t>-45,7%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 10,47</t>
+          <t>-3,85; 10,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 7,65</t>
+          <t>-2,64; 8,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 5,37</t>
+          <t>-3,65; 4,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 1,95</t>
+          <t>-7,06; 2,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 109,77</t>
+          <t>-24,67; 99,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 156,83</t>
+          <t>-27,78; 172,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-58,39; 234,34</t>
+          <t>-55,44; 208,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 283,49</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>65,82%</t>
+          <t>61,97%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,49; -0,09</t>
+          <t>-4,56; -0,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,47</t>
+          <t>-3,48; 2,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 4,4</t>
+          <t>0,08; 4,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,38</t>
+          <t>-1,13; 3,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-86,73; 14,12</t>
+          <t>-86,77; 5,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,95; 74,25</t>
+          <t>-54,13; 86,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 827,77</t>
+          <t>-18,67; 895,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-54,02; 562,06</t>
+          <t>-59,37; 538,8</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,01%</t>
+          <t>-8,96%</t>
         </is>
       </c>
     </row>
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 1,24</t>
+          <t>-5,25; 1,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 0,37</t>
+          <t>-4,58; 0,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 1,97</t>
+          <t>-3,43; 1,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,89</t>
+          <t>-2,18; 1,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-91,75; 175,29</t>
+          <t>-100,0; 115,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 162,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-77,85; 195,64</t>
+          <t>-80,57; 194,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-61,36%</t>
+          <t>-63,04%</t>
         </is>
       </c>
     </row>
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,31</t>
+          <t>-2,02; 1,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,46</t>
+          <t>-4,37; 0,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 0,92</t>
+          <t>-5,24; 0,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,42</t>
+          <t>-2,79; 0,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 522,44</t>
+          <t>-100,0; 577,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 50,92</t>
+          <t>-100,0; 87,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-88,33; 59,64</t>
+          <t>-89,55; 75,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-13,21%</t>
+          <t>-15,26%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 0,89</t>
+          <t>-2,4; 0,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 1,34</t>
+          <t>-2,1; 1,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,71</t>
+          <t>-1,09; 1,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,83</t>
+          <t>-1,33; 0,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,48; 25,53</t>
+          <t>-44,93; 26,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 38,39</t>
+          <t>-40,92; 34,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-37,2; 85,67</t>
+          <t>-31,15; 81,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-60,8; 94,29</t>
+          <t>-60,53; 80,43</t>
         </is>
       </c>
     </row>
